--- a/GameTools/Config/Test.xlsx
+++ b/GameTools/Config/Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DotLuaGameProject\GameTools\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\DotLuaGameProject\GameTools\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36AA1DF-FFE4-4528-900A-9B6BDA818336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A474250-5927-4DA5-9B2F-05BC67333DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35130" yWindow="5220" windowWidth="20895" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet1" sheetId="1" r:id="rId1"/>
@@ -207,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> StrMinMaxLen(2,10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>N-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,6 +254,10 @@
   </si>
   <si>
     <t>return 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrMinMaxLen(2,10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,7 +596,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -763,7 +763,7 @@
         <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -792,16 +792,16 @@
         <v>3.2</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
         <v>51</v>
       </c>
-      <c r="K7" t="s">
-        <v>52</v>
-      </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -824,16 +824,16 @@
         <v>4.2</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -859,16 +859,16 @@
         <v>45.65</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -894,10 +894,10 @@
         <v>56.23</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -908,7 +908,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/GameTools/Config/Test.xlsx
+++ b/GameTools/Config/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\DotLuaGameProject\GameTools\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A474250-5927-4DA5-9B2F-05BC67333DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C60922-EDDD-48CC-A2C6-401A4CFD5041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>#ETD#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,10 @@
   </si>
   <si>
     <t>StrMinMaxLen(2,10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotEmpty|Unique</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,12 +600,14 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -759,6 +765,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -838,7 +847,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>

--- a/GameTools/Config/Test.xlsx
+++ b/GameTools/Config/Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\DotLuaGameProject\GameTools\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DotLuaGameProject\GameTools\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C60922-EDDD-48CC-A2C6-401A4CFD5041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8074AE2-77A0-4031-BD17-CD4D0A983BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1665" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet1" sheetId="1" r:id="rId1"/>
@@ -600,7 +600,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -847,7 +847,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>

--- a/GameTools/Config/Test.xlsx
+++ b/GameTools/Config/Test.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DotLuaGameProject\GameTools\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\DotLuaGameProject\GameTools\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8074AE2-77A0-4031-BD17-CD4D0A983BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0F94E5-A965-4F40-9950-4F3690E2A8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1665" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Language_ZH" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>#ETD#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,10 +226,6 @@
     <t>TTF004</t>
   </si>
   <si>
-    <t>中国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,6 +259,14 @@
   </si>
   <si>
     <t>NotEmpty|Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -766,13 +771,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -803,14 +808,14 @@
       <c r="I7" t="s">
         <v>46</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7">
+        <v>1001</v>
+      </c>
+      <c r="K7" t="s">
         <v>50</v>
       </c>
-      <c r="K7" t="s">
-        <v>51</v>
-      </c>
       <c r="L7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -835,14 +840,14 @@
       <c r="I8" t="s">
         <v>47</v>
       </c>
-      <c r="J8" t="s">
-        <v>50</v>
+      <c r="J8">
+        <v>1002</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -870,14 +875,14 @@
       <c r="I9" t="s">
         <v>48</v>
       </c>
-      <c r="J9" t="s">
-        <v>50</v>
+      <c r="J9">
+        <v>1003</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -906,7 +911,7 @@
         <v>49</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -925,4 +930,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C81F24-29EA-4487-9EFA-0469786AB0C7}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1002</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1003</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GameTools/Config/Test.xlsx
+++ b/GameTools/Config/Test.xlsx
@@ -1,291 +1,190 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\DotLuaGameProject\GameTools\Config\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0F94E5-A965-4F40-9950-4F3690E2A8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20328" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Language_ZH" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>#ETD#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>BoolField</t>
+  </si>
+  <si>
+    <t>IntField</t>
+  </si>
+  <si>
+    <t>RefField</t>
+  </si>
+  <si>
+    <t>LongField</t>
+  </si>
+  <si>
+    <t>FloatField</t>
+  </si>
+  <si>
+    <t>StringField</t>
+  </si>
+  <si>
+    <t>TextField</t>
+  </si>
+  <si>
+    <t>AddressField</t>
   </si>
   <si>
     <t>唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>bool型字段</t>
+  </si>
+  <si>
+    <t>int字段</t>
+  </si>
+  <si>
+    <t>ref字段</t>
+  </si>
+  <si>
+    <t>long字段</t>
+  </si>
+  <si>
+    <t>float字段</t>
+  </si>
+  <si>
+    <t>string字段</t>
+  </si>
+  <si>
+    <t>text字段</t>
+  </si>
+  <si>
+    <t>address字段</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>uasset</t>
   </si>
   <si>
     <t>cs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>NotEmpty|Unique</t>
+  </si>
+  <si>
+    <t>NotEmpty</t>
+  </si>
+  <si>
+    <t>StrMinMaxLen(2,10)</t>
+  </si>
+  <si>
+    <t>start</t>
   </si>
   <si>
     <t>N-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTF))@</t>
+  </si>
+  <si>
+    <t>icon</t>
   </si>
   <si>
     <t>N-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTF002</t>
+  </si>
+  <si>
+    <t>icon2</t>
   </si>
   <si>
     <t>N-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTF003</t>
+  </si>
+  <si>
+    <t>icon4</t>
   </si>
   <si>
     <t>N-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTF004</t>
+  </si>
+  <si>
+    <t>icon5</t>
   </si>
   <si>
     <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoolField</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IntField</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefField</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LongField</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FloatField</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StringField</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TextField</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddressField</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LuaField</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool型字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lua字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NotEmpty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TTF))@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TTF002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TTF003</t>
-  </si>
-  <si>
-    <t>TTF004</t>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StrMinMaxLen(2,10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NotEmpty|Unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -294,20 +193,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -315,25 +543,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -382,7 +896,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -417,7 +931,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -591,31 +1105,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
-    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1296296296296" customWidth="1"/>
+    <col min="11" max="11" width="12.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,142 +1132,130 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="L1" t="s">
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7">
       <c r="D5" t="b">
         <v>1</v>
       </c>
@@ -769,26 +1266,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -806,24 +1303,21 @@
         <v>3.2</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J7">
         <v>1001</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>34</v>
@@ -838,24 +1332,21 @@
         <v>4.2</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J8">
         <v>1002</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -873,24 +1364,21 @@
         <v>45.65</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J9">
         <v>1003</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -908,41 +1396,42 @@
         <v>56.23</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C81F24-29EA-4487-9EFA-0469786AB0C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -950,68 +1439,68 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>1001</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
       <c r="B8">
         <v>1002</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
       <c r="B9">
         <v>1003</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/GameTools/Config/Test.xlsx
+++ b/GameTools/Config/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20328" windowHeight="8555"/>
+    <workbookView windowWidth="24225" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>#ETD#</t>
   </si>
@@ -50,6 +50,9 @@
     <t>AddressField</t>
   </si>
   <si>
+    <t>DateTimeField</t>
+  </si>
+  <si>
     <t>唯一标识</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
     <t>address字段</t>
   </si>
   <si>
+    <t>DateTime字段</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -98,12 +104,12 @@
     <t>float</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>uasset</t>
   </si>
   <si>
+    <t>datetime</t>
+  </si>
+  <si>
     <t>cs</t>
   </si>
   <si>
@@ -113,15 +119,6 @@
     <t>s</t>
   </si>
   <si>
-    <t>NotEmpty|Unique</t>
-  </si>
-  <si>
-    <t>NotEmpty</t>
-  </si>
-  <si>
-    <t>StrMinMaxLen(2,10)</t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
     <t>icon</t>
   </si>
   <si>
+    <t>2022-4-13 0:55:0</t>
+  </si>
+  <si>
     <t>N-2</t>
   </si>
   <si>
@@ -143,6 +143,9 @@
     <t>icon2</t>
   </si>
   <si>
+    <t>2022-4-13 0:55:1</t>
+  </si>
+  <si>
     <t>N-3</t>
   </si>
   <si>
@@ -152,6 +155,9 @@
     <t>icon4</t>
   </si>
   <si>
+    <t>2022-4-13 0:55:2</t>
+  </si>
+  <si>
     <t>N-4</t>
   </si>
   <si>
@@ -159,6 +165,9 @@
   </si>
   <si>
     <t>icon5</t>
+  </si>
+  <si>
+    <t>2022-4-13 0:55:3</t>
   </si>
   <si>
     <t>end</t>
@@ -175,10 +184,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -198,82 +207,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,9 +313,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,21 +337,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,37 +359,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,145 +521,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,21 +550,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -574,13 +568,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,22 +610,31 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -635,9 +642,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,10 +656,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,16 +668,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,121 +686,122 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1111,20 +1121,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="9" max="9" width="17.1296296296296" customWidth="1"/>
-    <col min="11" max="11" width="12.1296296296296" customWidth="1"/>
+    <col min="9" max="9" width="17.1333333333333" customWidth="1"/>
+    <col min="11" max="11" width="12.1333333333333" customWidth="1"/>
+    <col min="12" max="12" width="23.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1158,101 +1169,113 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="2:11">
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
       <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="4:7">
@@ -1266,26 +1289,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>35</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -1303,16 +1315,19 @@
         <v>3.2</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7">
         <v>1001</v>
       </c>
       <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:12">
       <c r="B8">
         <v>2</v>
       </c>
@@ -1340,13 +1355,16 @@
       <c r="K8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="2:11">
+      <c r="L8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1364,21 +1382,24 @@
         <v>45.65</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>1003</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
+        <v>45</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1396,21 +1417,24 @@
         <v>56.23</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1425,11 +1449,11 @@
   <sheetPr/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1439,42 +1463,42 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>1001</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:3">
@@ -1490,12 +1514,12 @@
         <v>1003</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
